--- a/Temp_import_cb_vnpost.xlsx
+++ b/Temp_import_cb_vnpost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNPOST\TaiLieuDacTa\VNPOST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A046E2A7-1FAC-49B2-A827-AB5A7E4863FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E1D3CB-19BD-44E9-99F5-BBAD56B39C2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6DA07973-0C0D-4E57-B19E-2950F8FB5AA8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +183,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,7 +282,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,7 +606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,13 +616,13 @@
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -637,19 +648,19 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -673,18 +684,18 @@
       <c r="L2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -692,13 +703,13 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>35</v>
       </c>
     </row>
